--- a/public/TESTS/Право загальні знання.xlsx
+++ b/public/TESTS/Право загальні знання.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11580"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="2325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="2324">
   <si>
     <t>Порядковий номер питання</t>
   </si>
@@ -6999,9 +6999,6 @@
   </si>
   <si>
     <t>Суддя-спікер публічно висловив свою думку з приводу проблемних аспектів у значущій справі до її закінчення</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -7988,10 +7985,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F496"/>
+  <dimension ref="A1:F494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301"/>
+    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="A491" sqref="A491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -17880,28 +17877,6 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="495" spans="4:6">
-      <c r="D495" t="s">
-        <v>2324</v>
-      </c>
-      <c r="E495" t="s">
-        <v>2324</v>
-      </c>
-      <c r="F495" t="s">
-        <v>2324</v>
-      </c>
-    </row>
-    <row r="496" spans="4:6">
-      <c r="D496" t="s">
-        <v>2324</v>
-      </c>
-      <c r="E496" t="s">
-        <v>2324</v>
-      </c>
-      <c r="F496" t="s">
-        <v>2324</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
